--- a/data_dictionary_attachments/Patient360 Analytical Layer Data Dictionary 202412 1.15.25.xlsx
+++ b/data_dictionary_attachments/Patient360 Analytical Layer Data Dictionary 202412 1.15.25.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28221"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29022"/>
   <fileSharing readOnlyRecommended="1"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -9,7 +9,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://concertai-my.sharepoint.com/personal/zdravis_concertai_com/Documents/Analytical Layer/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="149" documentId="8_{0FA65A8F-D26C-EE4F-BDFF-E0CA63F8F690}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E39CCBDD-9B00-4506-9E20-9364496AD432}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{2B9928AB-E7DE-4140-91B4-35D90F5DDD21}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2480" yWindow="500" windowWidth="31340" windowHeight="22460" xr2:uid="{7D47A047-539E-C042-A633-BB3D7E8DBFB2}"/>
   </bookViews>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="660" uniqueCount="232">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="660" uniqueCount="233">
   <si>
     <t>Table</t>
   </si>
@@ -464,6 +464,9 @@
 4. Prioritize values of current smoker over values of former smoker, and values of former smoker over values of non-smoker.</t>
   </si>
   <si>
+    <t>current smoker, former smoker, non-smoker</t>
+  </si>
+  <si>
     <t>date_initial_diagnosis_smoking_status</t>
   </si>
   <si>
@@ -741,7 +744,7 @@
     <t>For real world Progression Free Survival studies, it is recommended to use a maximum follow up date similar to the above but restricting to curated observations since disease progression is exclusively curated. This prevents over-estimating rwPFS for curated patients that do not have a curated progression event but have structured physical encounters that occur after the patient's last curated record.</t>
   </si>
   <si>
-    <t>biomarkers</t>
+    <t>biomarker</t>
   </si>
   <si>
     <t>date_first_egfr_exon_19_deletion</t>
@@ -1229,8 +1232,8 @@
   <dimension ref="A1:I76"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="B2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F9" sqref="F9"/>
+      <pane ySplit="1" topLeftCell="A33" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H35" sqref="H35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6328125" defaultRowHeight="21.95"/>
@@ -2166,7 +2169,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="33" spans="1:9" ht="299.10000000000002">
+    <row r="33" spans="1:9" ht="258.75">
       <c r="A33" s="1" t="s">
         <v>9</v>
       </c>
@@ -2188,8 +2191,8 @@
       <c r="G33" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="H33" s="2" t="s">
-        <v>16</v>
+      <c r="H33" s="3" t="s">
+        <v>135</v>
       </c>
       <c r="I33" s="4" t="s">
         <v>47</v>
@@ -2200,13 +2203,13 @@
         <v>9</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="D34" s="3" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="E34" s="3" t="s">
         <v>21</v>
@@ -2224,18 +2227,18 @@
         <v>47</v>
       </c>
     </row>
-    <row r="35" spans="1:9" ht="299.10000000000002">
+    <row r="35" spans="1:9" ht="258.75">
       <c r="A35" s="1" t="s">
         <v>9</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="D35" s="8" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="E35" s="3" t="s">
         <v>21</v>
@@ -2246,8 +2249,8 @@
       <c r="G35" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="H35" s="2" t="s">
-        <v>16</v>
+      <c r="H35" s="3" t="s">
+        <v>135</v>
       </c>
       <c r="I35" s="4" t="s">
         <v>33</v>
@@ -2258,13 +2261,13 @@
         <v>9</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="D36" s="3" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="E36" s="3" t="s">
         <v>21</v>
@@ -2287,13 +2290,13 @@
         <v>9</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="C37" s="3" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="D37" s="3" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="E37" s="3" t="s">
         <v>21</v>
@@ -2316,13 +2319,13 @@
         <v>9</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="C38" s="3" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="D38" s="3" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="E38" s="3" t="s">
         <v>21</v>
@@ -2343,13 +2346,13 @@
         <v>9</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="C39" s="3" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="D39" s="3" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="E39" s="3" t="s">
         <v>21</v>
@@ -2372,13 +2375,13 @@
         <v>9</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="C40" s="3" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="D40" s="3" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="E40" s="3" t="s">
         <v>21</v>
@@ -2399,13 +2402,13 @@
         <v>9</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="C41" s="3" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="D41" s="3" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="E41" s="3" t="s">
         <v>21</v>
@@ -2426,13 +2429,13 @@
         <v>9</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="C42" s="3" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="D42" s="3" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="E42" s="3" t="s">
         <v>21</v>
@@ -2453,19 +2456,19 @@
         <v>9</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="C43" s="3" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="D43" s="3" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="E43" s="3" t="s">
         <v>21</v>
       </c>
       <c r="F43" s="3" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="G43" s="2" t="s">
         <v>54</v>
@@ -2480,19 +2483,19 @@
         <v>9</v>
       </c>
       <c r="B44" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="C44" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="D44" s="3" t="s">
+        <v>169</v>
+      </c>
+      <c r="E44" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="F44" s="3" t="s">
         <v>166</v>
-      </c>
-      <c r="C44" s="3" t="s">
-        <v>167</v>
-      </c>
-      <c r="D44" s="3" t="s">
-        <v>168</v>
-      </c>
-      <c r="E44" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="F44" s="3" t="s">
-        <v>165</v>
       </c>
       <c r="G44" s="2" t="s">
         <v>54</v>
@@ -2507,16 +2510,16 @@
         <v>9</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="C45" s="3" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="D45" s="3" t="s">
         <v>16</v>
       </c>
       <c r="E45" s="3" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="F45" s="3" t="s">
         <v>14</v>
@@ -2536,16 +2539,16 @@
         <v>9</v>
       </c>
       <c r="B46" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="C46" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="D46" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E46" s="3" t="s">
         <v>172</v>
-      </c>
-      <c r="C46" s="3" t="s">
-        <v>173</v>
-      </c>
-      <c r="D46" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="E46" s="3" t="s">
-        <v>171</v>
       </c>
       <c r="F46" s="3" t="s">
         <v>14</v>
@@ -2565,10 +2568,10 @@
         <v>9</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="C47" s="3" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="D47" s="3" t="s">
         <v>16</v>
@@ -2580,7 +2583,7 @@
         <v>16</v>
       </c>
       <c r="G47" s="2" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="H47" s="2"/>
       <c r="I47" s="4" t="s">
@@ -2589,7 +2592,7 @@
     </row>
     <row r="48" spans="1:9" ht="45.95">
       <c r="A48" s="1" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="B48" s="2" t="s">
         <v>10</v>
@@ -2618,16 +2621,16 @@
     </row>
     <row r="49" spans="1:9" ht="45.95">
       <c r="A49" s="1" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="C49" s="3" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="D49" s="3" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="E49" s="3" t="s">
         <v>13</v>
@@ -2647,16 +2650,16 @@
     </row>
     <row r="50" spans="1:9" ht="23.1">
       <c r="A50" s="1" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="C50" s="3" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="D50" s="3" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="E50" s="3" t="s">
         <v>13</v>
@@ -2676,16 +2679,16 @@
     </row>
     <row r="51" spans="1:9" ht="45.95">
       <c r="A51" s="1" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="C51" s="3" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="D51" s="3" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="E51" s="3" t="s">
         <v>13</v>
@@ -2705,28 +2708,28 @@
     </row>
     <row r="52" spans="1:9" ht="138">
       <c r="A52" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="B52" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="C52" s="3" t="s">
+        <v>189</v>
+      </c>
+      <c r="D52" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="E52" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="F52" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="G52" s="2" t="s">
         <v>177</v>
       </c>
-      <c r="B52" s="2" t="s">
-        <v>187</v>
-      </c>
-      <c r="C52" s="3" t="s">
-        <v>188</v>
-      </c>
-      <c r="D52" s="3" t="s">
-        <v>189</v>
-      </c>
-      <c r="E52" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="F52" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="G52" s="2" t="s">
-        <v>176</v>
-      </c>
       <c r="H52" s="3" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="I52" s="4" t="s">
         <v>17</v>
@@ -2734,28 +2737,28 @@
     </row>
     <row r="53" spans="1:9" ht="69">
       <c r="A53" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="B53" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="C53" s="3" t="s">
+        <v>193</v>
+      </c>
+      <c r="D53" s="3" t="s">
+        <v>194</v>
+      </c>
+      <c r="E53" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="F53" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="G53" s="2" t="s">
         <v>177</v>
       </c>
-      <c r="B53" s="2" t="s">
-        <v>191</v>
-      </c>
-      <c r="C53" s="3" t="s">
-        <v>192</v>
-      </c>
-      <c r="D53" s="3" t="s">
-        <v>193</v>
-      </c>
-      <c r="E53" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="F53" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="G53" s="2" t="s">
-        <v>176</v>
-      </c>
       <c r="H53" s="3" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="I53" s="4" t="s">
         <v>17</v>
@@ -2763,28 +2766,28 @@
     </row>
     <row r="54" spans="1:9" ht="92.1">
       <c r="A54" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="B54" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="C54" s="3" t="s">
+        <v>197</v>
+      </c>
+      <c r="D54" s="3" t="s">
+        <v>198</v>
+      </c>
+      <c r="E54" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="F54" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="G54" s="2" t="s">
         <v>177</v>
       </c>
-      <c r="B54" s="2" t="s">
-        <v>195</v>
-      </c>
-      <c r="C54" s="3" t="s">
-        <v>196</v>
-      </c>
-      <c r="D54" s="3" t="s">
-        <v>197</v>
-      </c>
-      <c r="E54" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="F54" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="G54" s="2" t="s">
-        <v>176</v>
-      </c>
       <c r="H54" s="3" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="I54" s="4" t="s">
         <v>17</v>
@@ -2792,16 +2795,16 @@
     </row>
     <row r="55" spans="1:9" ht="45.95">
       <c r="A55" s="1" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="C55" s="3" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="D55" s="3" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="E55" s="3" t="s">
         <v>21</v>
@@ -2821,16 +2824,16 @@
     </row>
     <row r="56" spans="1:9" ht="69">
       <c r="A56" s="1" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="C56" s="3" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="D56" s="3" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="E56" s="3" t="s">
         <v>21</v>
@@ -2850,16 +2853,16 @@
     </row>
     <row r="57" spans="1:9" ht="45.95">
       <c r="A57" s="1" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="C57" s="3" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="D57" s="3" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="E57" s="3" t="s">
         <v>21</v>
@@ -2879,19 +2882,19 @@
     </row>
     <row r="58" spans="1:9" ht="45.95">
       <c r="A58" s="1" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="C58" s="3" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="D58" s="3" t="s">
         <v>16</v>
       </c>
       <c r="E58" s="3" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="F58" s="3" t="s">
         <v>14</v>
@@ -2908,19 +2911,19 @@
     </row>
     <row r="59" spans="1:9" ht="45.95">
       <c r="A59" s="1" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="B59" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="C59" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="D59" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E59" s="3" t="s">
         <v>172</v>
-      </c>
-      <c r="C59" s="3" t="s">
-        <v>173</v>
-      </c>
-      <c r="D59" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="E59" s="3" t="s">
-        <v>171</v>
       </c>
       <c r="F59" s="3" t="s">
         <v>14</v>
@@ -2937,25 +2940,25 @@
     </row>
     <row r="60" spans="1:9" ht="45.95">
       <c r="A60" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="B60" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="C60" s="3" t="s">
+        <v>176</v>
+      </c>
+      <c r="D60" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E60" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="F60" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G60" s="2" t="s">
         <v>177</v>
-      </c>
-      <c r="B60" s="2" t="s">
-        <v>174</v>
-      </c>
-      <c r="C60" s="3" t="s">
-        <v>175</v>
-      </c>
-      <c r="D60" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="E60" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="F60" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="G60" s="2" t="s">
-        <v>176</v>
       </c>
       <c r="H60" s="2"/>
       <c r="I60" s="4" t="s">
@@ -2964,7 +2967,7 @@
     </row>
     <row r="61" spans="1:9" ht="45.95">
       <c r="A61" s="1" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="B61" s="2" t="s">
         <v>10</v>
@@ -2993,16 +2996,16 @@
     </row>
     <row r="62" spans="1:9" ht="183.95">
       <c r="A62" s="1" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="C62" s="3" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="D62" s="3" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="E62" s="3" t="s">
         <v>21</v>
@@ -3015,21 +3018,21 @@
       </c>
       <c r="H62" s="2"/>
       <c r="I62" s="4" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
     </row>
     <row r="63" spans="1:9" ht="92.1">
       <c r="A63" s="1" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="C63" s="3" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="D63" s="3" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="E63" s="3" t="s">
         <v>13</v>
@@ -3044,21 +3047,21 @@
         <v>16</v>
       </c>
       <c r="I63" s="4" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
     </row>
     <row r="64" spans="1:9" ht="161.1">
       <c r="A64" s="1" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="C64" s="3" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="D64" s="3" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="E64" s="3" t="s">
         <v>21</v>
@@ -3078,16 +3081,16 @@
     </row>
     <row r="65" spans="1:9" ht="230.1">
       <c r="A65" s="1" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="C65" s="3" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="D65" s="3" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="E65" s="3" t="s">
         <v>21</v>
@@ -3107,19 +3110,19 @@
     </row>
     <row r="66" spans="1:9" ht="45.95">
       <c r="A66" s="1" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="C66" s="3" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="D66" s="3" t="s">
         <v>16</v>
       </c>
       <c r="E66" s="3" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="F66" s="3" t="s">
         <v>14</v>
@@ -3136,19 +3139,19 @@
     </row>
     <row r="67" spans="1:9" ht="45.95">
       <c r="A67" s="1" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="B67" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="C67" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="D67" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E67" s="3" t="s">
         <v>172</v>
-      </c>
-      <c r="C67" s="3" t="s">
-        <v>173</v>
-      </c>
-      <c r="D67" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="E67" s="3" t="s">
-        <v>171</v>
       </c>
       <c r="F67" s="3" t="s">
         <v>14</v>
@@ -3165,13 +3168,13 @@
     </row>
     <row r="68" spans="1:9" ht="45.95">
       <c r="A68" s="1" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="C68" s="3" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="D68" s="3" t="s">
         <v>16</v>
@@ -3183,7 +3186,7 @@
         <v>14</v>
       </c>
       <c r="G68" s="2" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="H68" s="2"/>
       <c r="I68" s="4" t="s">
@@ -3192,7 +3195,7 @@
     </row>
     <row r="69" spans="1:9" ht="45.95">
       <c r="A69" s="1" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="B69" s="2" t="s">
         <v>10</v>
@@ -3221,16 +3224,16 @@
     </row>
     <row r="70" spans="1:9" ht="92.1">
       <c r="A70" s="1" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="C70" s="3" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="D70" s="3" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="E70" s="3" t="s">
         <v>13</v>
@@ -3250,16 +3253,16 @@
     </row>
     <row r="71" spans="1:9" ht="114.95">
       <c r="A71" s="1" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="C71" s="3" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="D71" s="3" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="E71" s="3" t="s">
         <v>13</v>
@@ -3279,16 +3282,16 @@
     </row>
     <row r="72" spans="1:9" ht="114.95">
       <c r="A72" s="1" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="C72" s="3" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="D72" s="3" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="E72" s="3" t="s">
         <v>13</v>
@@ -3308,19 +3311,19 @@
     </row>
     <row r="73" spans="1:9" ht="45.95">
       <c r="A73" s="1" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="C73" s="3" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="D73" s="3" t="s">
         <v>16</v>
       </c>
       <c r="E73" s="3" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="F73" s="3" t="s">
         <v>14</v>
@@ -3337,19 +3340,19 @@
     </row>
     <row r="74" spans="1:9" ht="45.95">
       <c r="A74" s="1" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="B74" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="C74" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="D74" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E74" s="3" t="s">
         <v>172</v>
-      </c>
-      <c r="C74" s="3" t="s">
-        <v>173</v>
-      </c>
-      <c r="D74" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="E74" s="3" t="s">
-        <v>171</v>
       </c>
       <c r="F74" s="3" t="s">
         <v>14</v>
@@ -3366,13 +3369,13 @@
     </row>
     <row r="75" spans="1:9" ht="45.95">
       <c r="A75" s="1" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="C75" s="3" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="D75" s="3" t="s">
         <v>16</v>
@@ -3384,7 +3387,7 @@
         <v>16</v>
       </c>
       <c r="G75" s="2" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="H75" s="2"/>
       <c r="I75" s="4" t="s">
@@ -3410,31 +3413,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <Notes xmlns="cc75c794-4273-4996-b8c0-06d39cc2c570" xsi:nil="true"/>
-    <Comments xmlns="cc75c794-4273-4996-b8c0-06d39cc2c570" xsi:nil="true"/>
-    <Comment xmlns="cc75c794-4273-4996-b8c0-06d39cc2c570" xsi:nil="true"/>
-    <_Flow_SignoffStatus xmlns="cc75c794-4273-4996-b8c0-06d39cc2c570" xsi:nil="true"/>
-    <NottheRWD360generaldatadictionary xmlns="cc75c794-4273-4996-b8c0-06d39cc2c570" xsi:nil="true"/>
-    <TaxCatchAll xmlns="1a94c88a-bd54-4675-8241-06041c363c21" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="cc75c794-4273-4996-b8c0-06d39cc2c570">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101005A454DB7795DE94A9CBA377763284987" ma:contentTypeVersion="21" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="1aa094c833f39dcc93e4b11f14ecd8a5">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="cc75c794-4273-4996-b8c0-06d39cc2c570" xmlns:ns3="1a94c88a-bd54-4675-8241-06041c363c21" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="5602fb956caecb3aebacceaa9781bfcb" ns2:_="" ns3:_="">
     <xsd:import namespace="cc75c794-4273-4996-b8c0-06d39cc2c570"/>
@@ -3715,8 +3693,33 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <Notes xmlns="cc75c794-4273-4996-b8c0-06d39cc2c570" xsi:nil="true"/>
+    <Comments xmlns="cc75c794-4273-4996-b8c0-06d39cc2c570" xsi:nil="true"/>
+    <Comment xmlns="cc75c794-4273-4996-b8c0-06d39cc2c570" xsi:nil="true"/>
+    <_Flow_SignoffStatus xmlns="cc75c794-4273-4996-b8c0-06d39cc2c570" xsi:nil="true"/>
+    <NottheRWD360generaldatadictionary xmlns="cc75c794-4273-4996-b8c0-06d39cc2c570" xsi:nil="true"/>
+    <TaxCatchAll xmlns="1a94c88a-bd54-4675-8241-06041c363c21" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="cc75c794-4273-4996-b8c0-06d39cc2c570">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6C8BE0C6-7D54-45D1-9D96-2E07F5293FF8}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5F69CF39-B68F-4899-8B80-FF108F345E1C}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -3724,5 +3727,5 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5F69CF39-B68F-4899-8B80-FF108F345E1C}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6C8BE0C6-7D54-45D1-9D96-2E07F5293FF8}"/>
 </file>